--- a/apis.xlsx
+++ b/apis.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
   <si>
     <t>RESOURCE</t>
   </si>
@@ -69,50 +69,80 @@
     <t>Delete user</t>
   </si>
   <si>
-    <t>/register/:cause_id/:user_id</t>
-  </si>
-  <si>
     <t xml:space="preserve">Register user to a cause </t>
   </si>
   <si>
     <t>Shows causes user is registered to</t>
   </si>
   <si>
-    <t>{ user: id, cause: id }</t>
-  </si>
-  <si>
     <t>PARAMS</t>
   </si>
   <si>
-    <t>/causes</t>
-  </si>
-  <si>
-    <t>/causes/:cause_id</t>
-  </si>
-  <si>
     <t>/users</t>
   </si>
   <si>
     <t>/users/:user_id</t>
   </si>
   <si>
-    <t>/users/:user_id/causes</t>
-  </si>
-  <si>
-    <t>/users/:user_id/causes/:cause_id</t>
-  </si>
-  <si>
-    <t>/causes/:cause_id/users/:user_id</t>
-  </si>
-  <si>
     <t>/register/</t>
+  </si>
+  <si>
+    <t>restrictBy: userId, date; sortBy: date, alphanumeric</t>
+  </si>
+  <si>
+    <t>sortBy: date, alphanumeric, restrictBy: campaignId, date</t>
+  </si>
+  <si>
+    <t>/register/:campaign_id/:user_id</t>
+  </si>
+  <si>
+    <t>/users/:user_id/campaign</t>
+  </si>
+  <si>
+    <t>/users/:user_id/campaign/:campaign_id</t>
+  </si>
+  <si>
+    <t>/campaign/:campaign_id/users/:user_id</t>
+  </si>
+  <si>
+    <t>Pages</t>
+  </si>
+  <si>
+    <t>You</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>A page to display basic information about you, including which campaigns you own and which you have joined.</t>
+  </si>
+  <si>
+    <t>Campaign</t>
+  </si>
+  <si>
+    <t>A page to display a campaign's call to action and to let the visitor sign.</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>A page to display basic analytics about a campaign as well as a place to let campaign owners manage their calls to action and other messages.</t>
+  </si>
+  <si>
+    <t>{ user: id, campaign: id }</t>
+  </si>
+  <si>
+    <t>/campaigns</t>
+  </si>
+  <si>
+    <t>/campaigns/:campaign_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,13 +150,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -141,8 +185,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,7 +499,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,142 +520,148 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" t="s">
-        <v>20</v>
+      <c r="C19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -614,7 +672,7 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -625,7 +683,7 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -636,23 +694,64 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="48" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
